--- a/data/datacatalogue/Conception.xlsx
+++ b/data/datacatalogue/Conception.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/umcg-mswertz/git/molgenis-emx2/backend/molgenis-emx2-io/src/test/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/umcg-mswertz/git/molgenis-emx2/data/datacatalogue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961D18CC-E54A-0742-9D14-75207AE01D50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B141F93F-E947-604B-A158-651DD2D91B6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Institutions" sheetId="23" r:id="rId1"/>
@@ -21,33 +21,33 @@
     <sheet name="Models" sheetId="30" r:id="rId6"/>
     <sheet name="Partners" sheetId="31" r:id="rId7"/>
     <sheet name="Releases" sheetId="35" r:id="rId8"/>
-    <sheet name="Documentation" sheetId="33" r:id="rId9"/>
-    <sheet name="Affiliations" sheetId="24" r:id="rId10"/>
-    <sheet name="Contacts" sheetId="25" r:id="rId11"/>
-    <sheet name="Publications" sheetId="13" r:id="rId12"/>
-    <sheet name="ResourceTypes" sheetId="14" r:id="rId13"/>
-    <sheet name="Prompts" sheetId="45" r:id="rId14"/>
-    <sheet name="Keywords" sheetId="11" r:id="rId15"/>
-    <sheet name="Regions" sheetId="8" r:id="rId16"/>
-    <sheet name="InclusionCriteria" sheetId="21" r:id="rId17"/>
-    <sheet name="Vocabularies" sheetId="4" r:id="rId18"/>
-    <sheet name="AgeCategories" sheetId="5" r:id="rId19"/>
-    <sheet name="DocumentTypes" sheetId="6" r:id="rId20"/>
-    <sheet name="Formats" sheetId="7" r:id="rId21"/>
-    <sheet name="OntologyTerms" sheetId="9" r:id="rId22"/>
-    <sheet name="Status" sheetId="10" r:id="rId23"/>
-    <sheet name="UpdateFrequency" sheetId="12" r:id="rId24"/>
-    <sheet name="Conditions" sheetId="15" r:id="rId25"/>
-    <sheet name="ContributionTypes" sheetId="16" r:id="rId26"/>
-    <sheet name="InstitutionTypes" sheetId="17" r:id="rId27"/>
-    <sheet name="ObservationTargets" sheetId="18" r:id="rId28"/>
-    <sheet name="StatusDetails" sheetId="19" r:id="rId29"/>
-    <sheet name="Units" sheetId="20" r:id="rId30"/>
-    <sheet name="PartnerRoles" sheetId="22" r:id="rId31"/>
-    <sheet name="Subpopulations" sheetId="27" r:id="rId32"/>
-    <sheet name="CollectionEvents" sheetId="28" r:id="rId33"/>
-    <sheet name="Contributions" sheetId="32" r:id="rId34"/>
-    <sheet name="Tables" sheetId="37" r:id="rId35"/>
+    <sheet name="Tables" sheetId="37" r:id="rId9"/>
+    <sheet name="Documentation" sheetId="33" r:id="rId10"/>
+    <sheet name="Affiliations" sheetId="24" r:id="rId11"/>
+    <sheet name="Contacts" sheetId="25" r:id="rId12"/>
+    <sheet name="Publications" sheetId="13" r:id="rId13"/>
+    <sheet name="ResourceTypes" sheetId="14" r:id="rId14"/>
+    <sheet name="Prompts" sheetId="45" r:id="rId15"/>
+    <sheet name="Keywords" sheetId="11" r:id="rId16"/>
+    <sheet name="Regions" sheetId="8" r:id="rId17"/>
+    <sheet name="InclusionCriteria" sheetId="21" r:id="rId18"/>
+    <sheet name="Vocabularies" sheetId="4" r:id="rId19"/>
+    <sheet name="AgeCategories" sheetId="5" r:id="rId20"/>
+    <sheet name="DocumentTypes" sheetId="6" r:id="rId21"/>
+    <sheet name="Formats" sheetId="7" r:id="rId22"/>
+    <sheet name="OntologyTerms" sheetId="9" r:id="rId23"/>
+    <sheet name="Status" sheetId="10" r:id="rId24"/>
+    <sheet name="UpdateFrequency" sheetId="12" r:id="rId25"/>
+    <sheet name="Conditions" sheetId="15" r:id="rId26"/>
+    <sheet name="ContributionTypes" sheetId="16" r:id="rId27"/>
+    <sheet name="InstitutionTypes" sheetId="17" r:id="rId28"/>
+    <sheet name="ObservationTargets" sheetId="18" r:id="rId29"/>
+    <sheet name="StatusDetails" sheetId="19" r:id="rId30"/>
+    <sheet name="Units" sheetId="20" r:id="rId31"/>
+    <sheet name="PartnerRoles" sheetId="22" r:id="rId32"/>
+    <sheet name="Subpopulations" sheetId="27" r:id="rId33"/>
+    <sheet name="CollectionEvents" sheetId="28" r:id="rId34"/>
+    <sheet name="Contributions" sheetId="32" r:id="rId35"/>
     <sheet name="AllVariables" sheetId="38" r:id="rId36"/>
     <sheet name="TableMappings" sheetId="39" r:id="rId37"/>
     <sheet name="Variables" sheetId="40" r:id="rId38"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8806" uniqueCount="2472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8885" uniqueCount="2515">
   <si>
     <t>description</t>
   </si>
@@ -7578,12 +7578,155 @@
   <si>
     <t>Live birth, Stillbirth</t>
   </si>
+  <si>
+    <t>Patients</t>
+  </si>
+  <si>
+    <t>Conditioning factors </t>
+  </si>
+  <si>
+    <t>Background </t>
+  </si>
+  <si>
+    <t>General patient data </t>
+  </si>
+  <si>
+    <t>Episodes / Diagnoses</t>
+  </si>
+  <si>
+    <t>Free text comments of the episodes </t>
+  </si>
+  <si>
+    <t>Consultations </t>
+  </si>
+  <si>
+    <t>Tests </t>
+  </si>
+  <si>
+    <t>Paper prescriptions</t>
+  </si>
+  <si>
+    <t>Electronic prescriptions</t>
+  </si>
+  <si>
+    <t>Electronic dispensing</t>
+  </si>
+  <si>
+    <t>CMBD table </t>
+  </si>
+  <si>
+    <t>Pacientes</t>
+  </si>
+  <si>
+    <t>Condicionantes</t>
+  </si>
+  <si>
+    <t>Antecedentes</t>
+  </si>
+  <si>
+    <t>Datos generales de paciente</t>
+  </si>
+  <si>
+    <t>Episodios o Diagnósticos</t>
+  </si>
+  <si>
+    <t>Comentarios en texto libre del episodio</t>
+  </si>
+  <si>
+    <t>Interconsultas</t>
+  </si>
+  <si>
+    <t>Analíticas</t>
+  </si>
+  <si>
+    <t>Receta en papel</t>
+  </si>
+  <si>
+    <t>Prescripción electrónica</t>
+  </si>
+  <si>
+    <t>Dispensación electrónica</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tabla CMBD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AEMPS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discharge diagnoses are registered at the hospital and they include complete information on the discharge diagnoses and procedures. This information has recently been linked to BIFAP therefore we don’t still have formal measurement. On the other hand it is not complete in terms of regions and years. </t>
+  </si>
+  <si>
+    <t>CMDB</t>
+  </si>
+  <si>
+    <t>BIFAP hospital discharge diagnosis/procedures</t>
+  </si>
+  <si>
+    <t>Base de datos de Atención Primaria</t>
+  </si>
+  <si>
+    <t>Primary care physician’s electronic medical records containing details on demographics, prescriptions, episodes of care, specialist referrals, other additional health data and clinical notes, covering ten regions in Spain.</t>
+  </si>
+  <si>
+    <t>Primary care, Vaccines, Prescriptions, Administrative data, Socio-demographic data, Lifestyle data</t>
+  </si>
+  <si>
+    <t>A record is created when person has contact with a general practitioner.</t>
+  </si>
+  <si>
+    <t>The BIFAP research database is accessible to perform pharmacoepidemiological
+studies by independent researchers in Spain belonging to the public sector and to
+support the activities of the AEMPS. Independent researchers should first be accredited.
+Then, they have to submit a study protocol which needs to be evaluated and
+approved by an independent scientific committee. After that step, they have to sign a
+commitment document.During the implementation of the protocol data are processed
+and transferred following security measures adapted to the user and the characteristics
+of the data.</t>
+  </si>
+  <si>
+    <t>Spain has a National Health Service (NHS) that provides universal access to health
+services to the Spanish population through the Regional Healthcare Services. PCPs
+at NHS primary care centers have a central role. BIFAP (Base de Datos para la Investigación Farmacoepidemiológica en Atencion
+Primaria) is a longitudinal population-based database of computer-based medical patient records, from PCPs belonging to the NHS, and situated in any one of the partic-
+ipating Autonomous Communities (Regions) throughout Spain (www.bifap.org). BIFAP is a non-profit program financed by the Spanish Agency on Medicines
+and Medical Devices (AEMPS), a government agency belonging to the Ministry of Health, Consumer Affairs and Social Welfare. Ten out of 17 regions of Spain
+collaborate in the program and participation of the regions in BIFAP is voluntary (Maciá-Martínez et al. 2020). The main use of BIFAP is for research purposes in order to evaluate the adverse
+and beneficial effects of drugs and drug utilization patterns as used in the general population under real conditions of use.</t>
+  </si>
+  <si>
+    <t>Primary care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prescriptions </t>
+  </si>
+  <si>
+    <t>Administrative data</t>
+  </si>
+  <si>
+    <t>Socio-demographic data</t>
+  </si>
+  <si>
+    <t>Lifestyle data</t>
+  </si>
+  <si>
+    <t>Primary care medical records, Hospital Administrative Records</t>
+  </si>
+  <si>
+    <t>BIFAP_BASE</t>
+  </si>
+  <si>
+    <t>conditionsDescription</t>
+  </si>
+  <si>
+    <t>Spanish Agency on Medicines and Medical Devices (AEMPS)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -7630,6 +7773,26 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -7652,7 +7815,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -7660,9 +7823,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -7674,6 +7834,22 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -8662,6 +8838,46 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="39.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>901</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2364</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2363</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -8774,7 +8990,7 @@
       <c r="C6" t="s">
         <v>654</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>2369</v>
       </c>
     </row>
@@ -8786,7 +9002,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:L39"/>
   <sheetViews>
@@ -9125,7 +9341,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="6" t="s">
         <v>2430</v>
       </c>
       <c r="B39" t="s">
@@ -9137,7 +9353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -9179,12 +9395,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9516,7 +9732,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7296C009-670F-AA45-A46B-E44AC0D8E42E}">
   <dimension ref="A1:A21"/>
   <sheetViews>
@@ -9535,72 +9751,72 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>2436</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>2453</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>2454</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>2455</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>2456</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>1554</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>2457</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>2458</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>1559</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>2459</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>2460</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>2461</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>2462</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>2463</v>
       </c>
     </row>
@@ -9610,27 +9826,27 @@
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>2465</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>2467</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="11" t="s">
         <v>2435</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="11" t="s">
         <v>2468</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="11" t="s">
         <v>2437</v>
       </c>
     </row>
@@ -9639,12 +9855,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:G291"/>
+  <dimension ref="A1:G296"/>
   <sheetViews>
-    <sheetView topLeftCell="A277" workbookViewId="0">
-      <selection activeCell="A291" sqref="A291"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11839,42 +12055,42 @@
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A275" s="10" t="s">
+      <c r="A275" s="9" t="s">
         <v>2414</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A276" s="10" t="s">
+      <c r="A276" s="9" t="s">
         <v>2408</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A277" s="10" t="s">
+      <c r="A277" s="9" t="s">
         <v>2409</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A278" s="10" t="s">
+      <c r="A278" s="9" t="s">
         <v>2410</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A279" s="10" t="s">
+      <c r="A279" s="9" t="s">
         <v>2411</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A280" s="10" t="s">
+      <c r="A280" s="9" t="s">
         <v>2412</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A281" s="10" t="s">
+      <c r="A281" s="9" t="s">
         <v>2413</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A282" s="10" t="s">
+      <c r="A282" s="9" t="s">
         <v>2415</v>
       </c>
     </row>
@@ -11921,6 +12137,31 @@
     <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>2296</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>2510</v>
       </c>
     </row>
   </sheetData>
@@ -11928,7 +12169,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
@@ -12119,7 +12360,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
@@ -12217,7 +12458,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -12231,114 +12472,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G14"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12952,24 +13091,27 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:16" s="10" customFormat="1" ht="128" x14ac:dyDescent="0.2">
+      <c r="A21" s="17" t="s">
         <v>2442</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="17" t="s">
         <v>2432</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="10" t="s">
         <v>2431</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="17" t="s">
         <v>2351</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="10" t="s">
         <v>2444</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>2505</v>
       </c>
     </row>
   </sheetData>
@@ -12978,6 +13120,108 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -12989,7 +13233,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
@@ -13085,7 +13329,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -13097,7 +13341,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -13109,7 +13353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -13175,7 +13419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
@@ -13615,7 +13859,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -13830,7 +14074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
@@ -13933,7 +14177,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -14019,7 +14263,860 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
+  <dimension ref="A1:Y22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="M19" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="U21" sqref="U21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="8.83203125" style="10"/>
+    <col min="3" max="3" width="15.1640625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="61.83203125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="25.5" style="10" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="10"/>
+    <col min="7" max="7" width="59.5" style="10" customWidth="1"/>
+    <col min="8" max="8" width="31.83203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="42.1640625" style="2" customWidth="1"/>
+    <col min="10" max="12" width="8.83203125" style="10"/>
+    <col min="13" max="13" width="22.1640625" style="10" customWidth="1"/>
+    <col min="14" max="14" width="21.83203125" style="10" customWidth="1"/>
+    <col min="15" max="21" width="8.83203125" style="10"/>
+    <col min="22" max="22" width="30.5" style="10" customWidth="1"/>
+    <col min="23" max="23" width="92.83203125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="17" style="10" customWidth="1"/>
+    <col min="25" max="25" width="20.83203125" style="10" customWidth="1"/>
+    <col min="26" max="16384" width="8.83203125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>2406</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>2513</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>2250</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>2466</v>
+      </c>
+      <c r="X1" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y1" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="64" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>822</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>2313</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>823</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>2460</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="X2" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y2" s="10" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>639</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>826</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>827</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>2310</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>828</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>829</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>2467</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="X3" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y3" s="10" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>639</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>837</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>838</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>2311</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>839</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>840</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="V4" s="10" t="s">
+        <v>2470</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="X4" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y4" s="10" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>639</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>843</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>844</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>2257</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>845</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="V5" s="10" t="s">
+        <v>2435</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="X5" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y5" s="10" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>847</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>848</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>2314</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>850</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="V6" s="15" t="s">
+        <v>2463</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="X6" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y6" s="10" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="240" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>852</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>2311</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>855</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>856</v>
+      </c>
+      <c r="V7" s="10" t="s">
+        <v>2471</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="X7" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y7" s="10" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="160" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>859</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>2257</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>862</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="V8" s="10" t="s">
+        <v>1559</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="80" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>863</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>864</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>2312</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>862</v>
+      </c>
+      <c r="R9" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="V9" s="10" t="s">
+        <v>2459</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="176" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>867</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>868</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>2316</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="R10" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="X10" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y10" s="10" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="320" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>870</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>871</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>2310</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="R11" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="S11" s="10" t="s">
+        <v>856</v>
+      </c>
+      <c r="V11" s="10" t="s">
+        <v>2455</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="X11" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="Y11" s="10" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>874</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>875</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>2257</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>877</v>
+      </c>
+      <c r="R12" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="V12" s="10" t="s">
+        <v>2454</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>879</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>880</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>2310</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>845</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="S13" s="10" t="s">
+        <v>856</v>
+      </c>
+      <c r="V13" s="10" t="s">
+        <v>2455</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="X13" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="Y13" s="10" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="192" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>2377</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>790</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>832</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>833</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>2420</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>2433</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>2434</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>2450</v>
+      </c>
+      <c r="K14" s="10">
+        <v>1976</v>
+      </c>
+      <c r="R14" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="X14" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y14" s="10" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>790</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>882</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>883</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>2311</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>884</v>
+      </c>
+      <c r="R15" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="V15" s="10" t="s">
+        <v>2437</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="X15" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y15" s="10" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="320" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>790</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>886</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>887</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>2310</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>2451</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>834</v>
+      </c>
+      <c r="R16" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="V16" s="10" t="s">
+        <v>2455</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="X16" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y16" s="10" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>790</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>889</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>890</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>2314</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>891</v>
+      </c>
+      <c r="R17" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="V17" s="10" t="s">
+        <v>2469</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="X17" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y17" s="10" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>2377</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>790</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>2358</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>2357</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>2316</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>2378</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>2360</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="192" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>894</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>895</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>2420</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>850</v>
+      </c>
+      <c r="R19" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="S19" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="V19" s="10" t="s">
+        <v>2436</v>
+      </c>
+      <c r="W19" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="X19" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="Y19" s="10" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="C20" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="R20" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
+        <v>2496</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>2432</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>2512</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>2500</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>2511</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>2502</v>
+      </c>
+      <c r="K21" s="10">
+        <v>2001</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>2504</v>
+      </c>
+      <c r="R21" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="U21" s="10" t="s">
+        <v>2514</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>2503</v>
+      </c>
+      <c r="X21" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="Y21" s="10" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="144" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
+        <v>2496</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>2432</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>2498</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>2499</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>2420</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>2497</v>
+      </c>
+      <c r="K22" s="10">
+        <v>2001</v>
+      </c>
+      <c r="R22" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="X22" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="Y22" s="10" t="s">
+        <v>831</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -14070,771 +15167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
-  <dimension ref="A1:X20"/>
-  <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="56.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5" customWidth="1"/>
-    <col min="8" max="8" width="31.83203125" customWidth="1"/>
-    <col min="9" max="9" width="42.1640625" customWidth="1"/>
-    <col min="13" max="13" width="22.1640625" customWidth="1"/>
-    <col min="21" max="21" width="30.5" customWidth="1"/>
-    <col min="22" max="22" width="92.83203125" style="4" customWidth="1"/>
-    <col min="23" max="23" width="17" customWidth="1"/>
-    <col min="24" max="24" width="20.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
-        <v>2406</v>
-      </c>
-      <c r="J1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1" t="s">
-        <v>61</v>
-      </c>
-      <c r="O1" t="s">
-        <v>62</v>
-      </c>
-      <c r="P1" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>8</v>
-      </c>
-      <c r="R1" t="s">
-        <v>64</v>
-      </c>
-      <c r="S1" t="s">
-        <v>65</v>
-      </c>
-      <c r="T1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>2466</v>
-      </c>
-      <c r="W1" t="s">
-        <v>34</v>
-      </c>
-      <c r="X1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" ht="64" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>678</v>
-      </c>
-      <c r="B2" t="s">
-        <v>678</v>
-      </c>
-      <c r="C2" t="s">
-        <v>678</v>
-      </c>
-      <c r="D2" t="s">
-        <v>822</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2313</v>
-      </c>
-      <c r="K2" t="s">
-        <v>823</v>
-      </c>
-      <c r="R2" t="s">
-        <v>123</v>
-      </c>
-      <c r="U2" t="s">
-        <v>2460</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>824</v>
-      </c>
-      <c r="W2" t="s">
-        <v>404</v>
-      </c>
-      <c r="X2" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>639</v>
-      </c>
-      <c r="B3" t="s">
-        <v>786</v>
-      </c>
-      <c r="C3" t="s">
-        <v>826</v>
-      </c>
-      <c r="D3" t="s">
-        <v>827</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2310</v>
-      </c>
-      <c r="G3" t="s">
-        <v>828</v>
-      </c>
-      <c r="K3" t="s">
-        <v>829</v>
-      </c>
-      <c r="R3" t="s">
-        <v>111</v>
-      </c>
-      <c r="U3" t="s">
-        <v>2467</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>830</v>
-      </c>
-      <c r="W3" t="s">
-        <v>401</v>
-      </c>
-      <c r="X3" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>639</v>
-      </c>
-      <c r="B4" t="s">
-        <v>786</v>
-      </c>
-      <c r="C4" t="s">
-        <v>837</v>
-      </c>
-      <c r="D4" t="s">
-        <v>838</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>2311</v>
-      </c>
-      <c r="G4" t="s">
-        <v>839</v>
-      </c>
-      <c r="K4" t="s">
-        <v>840</v>
-      </c>
-      <c r="R4" t="s">
-        <v>111</v>
-      </c>
-      <c r="U4" t="s">
-        <v>2470</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>841</v>
-      </c>
-      <c r="W4" t="s">
-        <v>401</v>
-      </c>
-      <c r="X4" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>639</v>
-      </c>
-      <c r="B5" t="s">
-        <v>786</v>
-      </c>
-      <c r="C5" t="s">
-        <v>843</v>
-      </c>
-      <c r="D5" t="s">
-        <v>844</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>2257</v>
-      </c>
-      <c r="K5" t="s">
-        <v>845</v>
-      </c>
-      <c r="R5" t="s">
-        <v>111</v>
-      </c>
-      <c r="U5" t="s">
-        <v>2435</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="W5" t="s">
-        <v>401</v>
-      </c>
-      <c r="X5" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="208" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>681</v>
-      </c>
-      <c r="B6" t="s">
-        <v>681</v>
-      </c>
-      <c r="C6" t="s">
-        <v>847</v>
-      </c>
-      <c r="D6" t="s">
-        <v>848</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>2314</v>
-      </c>
-      <c r="H6" t="s">
-        <v>849</v>
-      </c>
-      <c r="K6" t="s">
-        <v>850</v>
-      </c>
-      <c r="R6" t="s">
-        <v>123</v>
-      </c>
-      <c r="U6" s="12" t="s">
-        <v>2463</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>849</v>
-      </c>
-      <c r="W6" t="s">
-        <v>405</v>
-      </c>
-      <c r="X6" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>681</v>
-      </c>
-      <c r="B7" t="s">
-        <v>681</v>
-      </c>
-      <c r="C7" t="s">
-        <v>852</v>
-      </c>
-      <c r="D7" t="s">
-        <v>853</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>2311</v>
-      </c>
-      <c r="H7" t="s">
-        <v>854</v>
-      </c>
-      <c r="K7" t="s">
-        <v>855</v>
-      </c>
-      <c r="R7" t="s">
-        <v>123</v>
-      </c>
-      <c r="S7" t="s">
-        <v>856</v>
-      </c>
-      <c r="U7" t="s">
-        <v>2471</v>
-      </c>
-      <c r="V7" s="4" t="s">
-        <v>857</v>
-      </c>
-      <c r="W7" t="s">
-        <v>405</v>
-      </c>
-      <c r="X7" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="48" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>681</v>
-      </c>
-      <c r="B8" t="s">
-        <v>681</v>
-      </c>
-      <c r="C8" t="s">
-        <v>859</v>
-      </c>
-      <c r="D8" t="s">
-        <v>860</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>2257</v>
-      </c>
-      <c r="H8" t="s">
-        <v>861</v>
-      </c>
-      <c r="K8" t="s">
-        <v>862</v>
-      </c>
-      <c r="R8" t="s">
-        <v>123</v>
-      </c>
-      <c r="U8" t="s">
-        <v>1559</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>681</v>
-      </c>
-      <c r="B9" t="s">
-        <v>681</v>
-      </c>
-      <c r="C9" t="s">
-        <v>863</v>
-      </c>
-      <c r="D9" t="s">
-        <v>864</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>2312</v>
-      </c>
-      <c r="H9" t="s">
-        <v>865</v>
-      </c>
-      <c r="K9" t="s">
-        <v>862</v>
-      </c>
-      <c r="R9" t="s">
-        <v>123</v>
-      </c>
-      <c r="U9" t="s">
-        <v>2459</v>
-      </c>
-      <c r="V9" s="4" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" ht="64" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>681</v>
-      </c>
-      <c r="B10" t="s">
-        <v>681</v>
-      </c>
-      <c r="C10" t="s">
-        <v>867</v>
-      </c>
-      <c r="D10" t="s">
-        <v>868</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>2316</v>
-      </c>
-      <c r="H10" t="s">
-        <v>869</v>
-      </c>
-      <c r="R10" t="s">
-        <v>123</v>
-      </c>
-      <c r="V10" s="4" t="s">
-        <v>869</v>
-      </c>
-      <c r="W10" t="s">
-        <v>405</v>
-      </c>
-      <c r="X10" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>681</v>
-      </c>
-      <c r="B11" t="s">
-        <v>681</v>
-      </c>
-      <c r="C11" t="s">
-        <v>870</v>
-      </c>
-      <c r="D11" t="s">
-        <v>871</v>
-      </c>
-      <c r="E11" t="s">
-        <v>2310</v>
-      </c>
-      <c r="H11" t="s">
-        <v>872</v>
-      </c>
-      <c r="R11" t="s">
-        <v>123</v>
-      </c>
-      <c r="S11" t="s">
-        <v>856</v>
-      </c>
-      <c r="U11" t="s">
-        <v>2455</v>
-      </c>
-      <c r="V11" s="4" t="s">
-        <v>871</v>
-      </c>
-      <c r="W11" t="s">
-        <v>400</v>
-      </c>
-      <c r="X11" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>681</v>
-      </c>
-      <c r="B12" t="s">
-        <v>681</v>
-      </c>
-      <c r="C12" t="s">
-        <v>874</v>
-      </c>
-      <c r="D12" t="s">
-        <v>875</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>2257</v>
-      </c>
-      <c r="H12" t="s">
-        <v>876</v>
-      </c>
-      <c r="K12" t="s">
-        <v>877</v>
-      </c>
-      <c r="R12" t="s">
-        <v>123</v>
-      </c>
-      <c r="U12" t="s">
-        <v>2454</v>
-      </c>
-      <c r="V12" s="4" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>681</v>
-      </c>
-      <c r="B13" t="s">
-        <v>681</v>
-      </c>
-      <c r="C13" t="s">
-        <v>879</v>
-      </c>
-      <c r="D13" t="s">
-        <v>880</v>
-      </c>
-      <c r="E13" t="s">
-        <v>2310</v>
-      </c>
-      <c r="H13" t="s">
-        <v>881</v>
-      </c>
-      <c r="K13" t="s">
-        <v>845</v>
-      </c>
-      <c r="R13" t="s">
-        <v>123</v>
-      </c>
-      <c r="S13" t="s">
-        <v>856</v>
-      </c>
-      <c r="U13" t="s">
-        <v>2455</v>
-      </c>
-      <c r="V13" s="4" t="s">
-        <v>880</v>
-      </c>
-      <c r="W13" t="s">
-        <v>400</v>
-      </c>
-      <c r="X13" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>2377</v>
-      </c>
-      <c r="B14" t="s">
-        <v>790</v>
-      </c>
-      <c r="C14" t="s">
-        <v>832</v>
-      </c>
-      <c r="D14" t="s">
-        <v>833</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>2420</v>
-      </c>
-      <c r="G14" t="s">
-        <v>2433</v>
-      </c>
-      <c r="H14" t="s">
-        <v>2434</v>
-      </c>
-      <c r="I14" t="s">
-        <v>2450</v>
-      </c>
-      <c r="K14">
-        <v>1976</v>
-      </c>
-      <c r="R14" t="s">
-        <v>112</v>
-      </c>
-      <c r="V14" s="4" t="s">
-        <v>835</v>
-      </c>
-      <c r="W14" t="s">
-        <v>403</v>
-      </c>
-      <c r="X14" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>634</v>
-      </c>
-      <c r="B15" t="s">
-        <v>790</v>
-      </c>
-      <c r="C15" t="s">
-        <v>882</v>
-      </c>
-      <c r="D15" t="s">
-        <v>883</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>2311</v>
-      </c>
-      <c r="K15" t="s">
-        <v>884</v>
-      </c>
-      <c r="R15" t="s">
-        <v>112</v>
-      </c>
-      <c r="U15" t="s">
-        <v>2437</v>
-      </c>
-      <c r="V15" s="4" t="s">
-        <v>885</v>
-      </c>
-      <c r="W15" t="s">
-        <v>403</v>
-      </c>
-      <c r="X15" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="320" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>634</v>
-      </c>
-      <c r="B16" t="s">
-        <v>790</v>
-      </c>
-      <c r="C16" t="s">
-        <v>886</v>
-      </c>
-      <c r="D16" t="s">
-        <v>887</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>2310</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>2451</v>
-      </c>
-      <c r="K16" t="s">
-        <v>834</v>
-      </c>
-      <c r="R16" t="s">
-        <v>112</v>
-      </c>
-      <c r="U16" t="s">
-        <v>2455</v>
-      </c>
-      <c r="V16" s="4" t="s">
-        <v>888</v>
-      </c>
-      <c r="W16" t="s">
-        <v>403</v>
-      </c>
-      <c r="X16" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>634</v>
-      </c>
-      <c r="B17" t="s">
-        <v>790</v>
-      </c>
-      <c r="C17" t="s">
-        <v>889</v>
-      </c>
-      <c r="D17" t="s">
-        <v>890</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>2314</v>
-      </c>
-      <c r="K17" t="s">
-        <v>891</v>
-      </c>
-      <c r="R17" t="s">
-        <v>112</v>
-      </c>
-      <c r="U17" t="s">
-        <v>2469</v>
-      </c>
-      <c r="V17" s="4" t="s">
-        <v>892</v>
-      </c>
-      <c r="W17" t="s">
-        <v>403</v>
-      </c>
-      <c r="X17" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" s="11" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
-        <v>2377</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>790</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>2358</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>2357</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>2316</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>2378</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>2360</v>
-      </c>
-      <c r="M18" s="11" t="s">
-        <v>423</v>
-      </c>
-      <c r="Q18" s="11" t="s">
-        <v>2359</v>
-      </c>
-      <c r="V18" s="2"/>
-    </row>
-    <row r="19" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>681</v>
-      </c>
-      <c r="B19" t="s">
-        <v>681</v>
-      </c>
-      <c r="C19" t="s">
-        <v>894</v>
-      </c>
-      <c r="D19" t="s">
-        <v>895</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>2420</v>
-      </c>
-      <c r="H19" t="s">
-        <v>896</v>
-      </c>
-      <c r="K19" t="s">
-        <v>850</v>
-      </c>
-      <c r="R19" t="s">
-        <v>123</v>
-      </c>
-      <c r="S19" t="s">
-        <v>627</v>
-      </c>
-      <c r="U19" t="s">
-        <v>2436</v>
-      </c>
-      <c r="V19" s="4" t="s">
-        <v>897</v>
-      </c>
-      <c r="W19" t="s">
-        <v>400</v>
-      </c>
-      <c r="X19" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
-        <v>798</v>
-      </c>
-      <c r="D20" t="s">
-        <v>799</v>
-      </c>
-      <c r="R20" t="s">
-        <v>127</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
@@ -15030,7 +15363,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -15081,7 +15414,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -15093,7 +15426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -15105,7 +15438,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
@@ -15483,1333 +15816,6 @@
       </c>
       <c r="F21" t="s">
         <v>821</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
-  <dimension ref="A1:H80"/>
-  <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="49.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>902</v>
-      </c>
-      <c r="B1" t="s">
-        <v>903</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2445</v>
-      </c>
-      <c r="B2" t="s">
-        <v>900</v>
-      </c>
-      <c r="C2" t="s">
-        <v>904</v>
-      </c>
-      <c r="F2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G2" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2445</v>
-      </c>
-      <c r="B3" t="s">
-        <v>900</v>
-      </c>
-      <c r="C3" t="s">
-        <v>906</v>
-      </c>
-      <c r="E3" t="s">
-        <v>586</v>
-      </c>
-      <c r="F3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G3" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2445</v>
-      </c>
-      <c r="B4" t="s">
-        <v>900</v>
-      </c>
-      <c r="C4" t="s">
-        <v>908</v>
-      </c>
-      <c r="E4" t="s">
-        <v>580</v>
-      </c>
-      <c r="F4" t="s">
-        <v>130</v>
-      </c>
-      <c r="G4" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>2445</v>
-      </c>
-      <c r="B5" t="s">
-        <v>900</v>
-      </c>
-      <c r="C5" t="s">
-        <v>910</v>
-      </c>
-      <c r="E5" t="s">
-        <v>587</v>
-      </c>
-      <c r="F5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G5" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>2445</v>
-      </c>
-      <c r="B6" t="s">
-        <v>900</v>
-      </c>
-      <c r="C6" t="s">
-        <v>912</v>
-      </c>
-      <c r="E6" t="s">
-        <v>587</v>
-      </c>
-      <c r="F6" t="s">
-        <v>131</v>
-      </c>
-      <c r="G6" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>2445</v>
-      </c>
-      <c r="B7" t="s">
-        <v>900</v>
-      </c>
-      <c r="C7" t="s">
-        <v>914</v>
-      </c>
-      <c r="F7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G7" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>2445</v>
-      </c>
-      <c r="B8" t="s">
-        <v>900</v>
-      </c>
-      <c r="C8" t="s">
-        <v>916</v>
-      </c>
-      <c r="F8" t="s">
-        <v>131</v>
-      </c>
-      <c r="G8" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>2445</v>
-      </c>
-      <c r="B9" t="s">
-        <v>900</v>
-      </c>
-      <c r="C9" t="s">
-        <v>918</v>
-      </c>
-      <c r="F9" t="s">
-        <v>131</v>
-      </c>
-      <c r="G9" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>2445</v>
-      </c>
-      <c r="B10" t="s">
-        <v>900</v>
-      </c>
-      <c r="C10" t="s">
-        <v>920</v>
-      </c>
-      <c r="F10" t="s">
-        <v>129</v>
-      </c>
-      <c r="G10" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>2445</v>
-      </c>
-      <c r="B11" t="s">
-        <v>900</v>
-      </c>
-      <c r="C11" t="s">
-        <v>922</v>
-      </c>
-      <c r="F11" t="s">
-        <v>130</v>
-      </c>
-      <c r="G11" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>2445</v>
-      </c>
-      <c r="B12" t="s">
-        <v>900</v>
-      </c>
-      <c r="C12" t="s">
-        <v>924</v>
-      </c>
-      <c r="F12" t="s">
-        <v>130</v>
-      </c>
-      <c r="G12" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>2445</v>
-      </c>
-      <c r="B13" t="s">
-        <v>900</v>
-      </c>
-      <c r="C13" t="s">
-        <v>926</v>
-      </c>
-      <c r="F13" t="s">
-        <v>128</v>
-      </c>
-      <c r="G13" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>2445</v>
-      </c>
-      <c r="B14" t="s">
-        <v>900</v>
-      </c>
-      <c r="C14" t="s">
-        <v>928</v>
-      </c>
-      <c r="F14" t="s">
-        <v>128</v>
-      </c>
-      <c r="G14" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>2445</v>
-      </c>
-      <c r="B15" t="s">
-        <v>900</v>
-      </c>
-      <c r="C15" t="s">
-        <v>930</v>
-      </c>
-      <c r="F15" t="s">
-        <v>129</v>
-      </c>
-      <c r="G15" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>681</v>
-      </c>
-      <c r="B16" t="s">
-        <v>900</v>
-      </c>
-      <c r="C16" t="s">
-        <v>847</v>
-      </c>
-      <c r="D16" t="s">
-        <v>411</v>
-      </c>
-      <c r="E16" t="s">
-        <v>580</v>
-      </c>
-      <c r="F16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G16" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>681</v>
-      </c>
-      <c r="B17" t="s">
-        <v>900</v>
-      </c>
-      <c r="C17" t="s">
-        <v>859</v>
-      </c>
-      <c r="D17" t="s">
-        <v>932</v>
-      </c>
-      <c r="E17" t="s">
-        <v>581</v>
-      </c>
-      <c r="F17" t="s">
-        <v>131</v>
-      </c>
-      <c r="G17" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>681</v>
-      </c>
-      <c r="B18" t="s">
-        <v>900</v>
-      </c>
-      <c r="C18" t="s">
-        <v>863</v>
-      </c>
-      <c r="D18" t="s">
-        <v>933</v>
-      </c>
-      <c r="E18" t="s">
-        <v>581</v>
-      </c>
-      <c r="F18" t="s">
-        <v>131</v>
-      </c>
-      <c r="G18" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>681</v>
-      </c>
-      <c r="B19" t="s">
-        <v>900</v>
-      </c>
-      <c r="C19" t="s">
-        <v>894</v>
-      </c>
-      <c r="D19" t="s">
-        <v>409</v>
-      </c>
-      <c r="E19" t="s">
-        <v>583</v>
-      </c>
-      <c r="F19" t="s">
-        <v>129</v>
-      </c>
-      <c r="G19" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>681</v>
-      </c>
-      <c r="B20" t="s">
-        <v>900</v>
-      </c>
-      <c r="C20" t="s">
-        <v>870</v>
-      </c>
-      <c r="D20" t="s">
-        <v>934</v>
-      </c>
-      <c r="E20" t="s">
-        <v>584</v>
-      </c>
-      <c r="F20" t="s">
-        <v>129</v>
-      </c>
-      <c r="G20" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>792</v>
-      </c>
-      <c r="B21" t="s">
-        <v>900</v>
-      </c>
-      <c r="C21" t="s">
-        <v>935</v>
-      </c>
-      <c r="G21" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>792</v>
-      </c>
-      <c r="B22" t="s">
-        <v>900</v>
-      </c>
-      <c r="C22" t="s">
-        <v>937</v>
-      </c>
-      <c r="G22" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>681</v>
-      </c>
-      <c r="B23" t="s">
-        <v>900</v>
-      </c>
-      <c r="C23" t="s">
-        <v>879</v>
-      </c>
-      <c r="D23" t="s">
-        <v>939</v>
-      </c>
-      <c r="F23" t="s">
-        <v>129</v>
-      </c>
-      <c r="G23" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>681</v>
-      </c>
-      <c r="B24" t="s">
-        <v>900</v>
-      </c>
-      <c r="C24" t="s">
-        <v>867</v>
-      </c>
-      <c r="D24" t="s">
-        <v>868</v>
-      </c>
-      <c r="F24" t="s">
-        <v>129</v>
-      </c>
-      <c r="G24" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>681</v>
-      </c>
-      <c r="B25" t="s">
-        <v>900</v>
-      </c>
-      <c r="C25" t="s">
-        <v>940</v>
-      </c>
-      <c r="D25" t="s">
-        <v>941</v>
-      </c>
-      <c r="F25" t="s">
-        <v>129</v>
-      </c>
-      <c r="G25" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>681</v>
-      </c>
-      <c r="B26" t="s">
-        <v>900</v>
-      </c>
-      <c r="C26" t="s">
-        <v>943</v>
-      </c>
-      <c r="D26" t="s">
-        <v>413</v>
-      </c>
-      <c r="F26" t="s">
-        <v>131</v>
-      </c>
-      <c r="G26" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>681</v>
-      </c>
-      <c r="B27" t="s">
-        <v>900</v>
-      </c>
-      <c r="C27" t="s">
-        <v>945</v>
-      </c>
-      <c r="D27" t="s">
-        <v>946</v>
-      </c>
-      <c r="E27" t="s">
-        <v>582</v>
-      </c>
-      <c r="F27" t="s">
-        <v>129</v>
-      </c>
-      <c r="G27" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>681</v>
-      </c>
-      <c r="B28" t="s">
-        <v>900</v>
-      </c>
-      <c r="C28" t="s">
-        <v>948</v>
-      </c>
-      <c r="D28" t="s">
-        <v>949</v>
-      </c>
-      <c r="F28" t="s">
-        <v>129</v>
-      </c>
-      <c r="G28" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>681</v>
-      </c>
-      <c r="B29" t="s">
-        <v>900</v>
-      </c>
-      <c r="C29" t="s">
-        <v>951</v>
-      </c>
-      <c r="D29" t="s">
-        <v>952</v>
-      </c>
-      <c r="F29" t="s">
-        <v>128</v>
-      </c>
-      <c r="G29" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>681</v>
-      </c>
-      <c r="B30" t="s">
-        <v>900</v>
-      </c>
-      <c r="C30" t="s">
-        <v>954</v>
-      </c>
-      <c r="D30" t="s">
-        <v>410</v>
-      </c>
-      <c r="E30" t="s">
-        <v>585</v>
-      </c>
-      <c r="F30" t="s">
-        <v>955</v>
-      </c>
-      <c r="G30" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>681</v>
-      </c>
-      <c r="B31" t="s">
-        <v>900</v>
-      </c>
-      <c r="C31" t="s">
-        <v>956</v>
-      </c>
-      <c r="D31" t="s">
-        <v>410</v>
-      </c>
-      <c r="E31" t="s">
-        <v>585</v>
-      </c>
-      <c r="F31" t="s">
-        <v>955</v>
-      </c>
-      <c r="G31" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>889</v>
-      </c>
-      <c r="B32" t="s">
-        <v>900</v>
-      </c>
-      <c r="C32" t="s">
-        <v>957</v>
-      </c>
-      <c r="E32" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>832</v>
-      </c>
-      <c r="B33" t="s">
-        <v>900</v>
-      </c>
-      <c r="C33" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>832</v>
-      </c>
-      <c r="B34" t="s">
-        <v>900</v>
-      </c>
-      <c r="C34" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>832</v>
-      </c>
-      <c r="B35" t="s">
-        <v>900</v>
-      </c>
-      <c r="C35" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>893</v>
-      </c>
-      <c r="B36" t="s">
-        <v>900</v>
-      </c>
-      <c r="C36" t="s">
-        <v>893</v>
-      </c>
-      <c r="G36" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>2445</v>
-      </c>
-      <c r="B37" t="s">
-        <v>900</v>
-      </c>
-      <c r="C37" t="s">
-        <v>962</v>
-      </c>
-      <c r="E37" t="s">
-        <v>579</v>
-      </c>
-      <c r="F37" t="s">
-        <v>129</v>
-      </c>
-      <c r="G37" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>2445</v>
-      </c>
-      <c r="B38" t="s">
-        <v>900</v>
-      </c>
-      <c r="C38" t="s">
-        <v>964</v>
-      </c>
-      <c r="F38" t="s">
-        <v>128</v>
-      </c>
-      <c r="G38" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>681</v>
-      </c>
-      <c r="B39" t="s">
-        <v>900</v>
-      </c>
-      <c r="C39" t="s">
-        <v>874</v>
-      </c>
-      <c r="D39" t="s">
-        <v>966</v>
-      </c>
-      <c r="F39" t="s">
-        <v>129</v>
-      </c>
-      <c r="G39" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>792</v>
-      </c>
-      <c r="B40" t="s">
-        <v>900</v>
-      </c>
-      <c r="C40" t="s">
-        <v>967</v>
-      </c>
-      <c r="G40" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>792</v>
-      </c>
-      <c r="B41" t="s">
-        <v>900</v>
-      </c>
-      <c r="C41" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>792</v>
-      </c>
-      <c r="B42" t="s">
-        <v>900</v>
-      </c>
-      <c r="C42" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>792</v>
-      </c>
-      <c r="B43" t="s">
-        <v>900</v>
-      </c>
-      <c r="C43" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>786</v>
-      </c>
-      <c r="B44" t="s">
-        <v>900</v>
-      </c>
-      <c r="C44" t="s">
-        <v>826</v>
-      </c>
-      <c r="D44" t="s">
-        <v>972</v>
-      </c>
-      <c r="E44" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>786</v>
-      </c>
-      <c r="B45" t="s">
-        <v>900</v>
-      </c>
-      <c r="C45" t="s">
-        <v>973</v>
-      </c>
-      <c r="D45" t="s">
-        <v>974</v>
-      </c>
-      <c r="E45" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>786</v>
-      </c>
-      <c r="B46" t="s">
-        <v>900</v>
-      </c>
-      <c r="C46" t="s">
-        <v>975</v>
-      </c>
-      <c r="D46" t="s">
-        <v>976</v>
-      </c>
-      <c r="E46" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>786</v>
-      </c>
-      <c r="B47" t="s">
-        <v>900</v>
-      </c>
-      <c r="C47" t="s">
-        <v>843</v>
-      </c>
-      <c r="D47" t="s">
-        <v>977</v>
-      </c>
-      <c r="E47" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>790</v>
-      </c>
-      <c r="B48" t="s">
-        <v>900</v>
-      </c>
-      <c r="C48" t="s">
-        <v>957</v>
-      </c>
-      <c r="D48" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>790</v>
-      </c>
-      <c r="B49" t="s">
-        <v>900</v>
-      </c>
-      <c r="C49" t="s">
-        <v>978</v>
-      </c>
-      <c r="D49" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>805</v>
-      </c>
-      <c r="B50" t="s">
-        <v>900</v>
-      </c>
-      <c r="C50" t="s">
-        <v>979</v>
-      </c>
-      <c r="D50" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>805</v>
-      </c>
-      <c r="B51" t="s">
-        <v>900</v>
-      </c>
-      <c r="C51" t="s">
-        <v>981</v>
-      </c>
-      <c r="D51" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>805</v>
-      </c>
-      <c r="B52" t="s">
-        <v>900</v>
-      </c>
-      <c r="C52" t="s">
-        <v>983</v>
-      </c>
-      <c r="D52" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>805</v>
-      </c>
-      <c r="B53" t="s">
-        <v>900</v>
-      </c>
-      <c r="C53" t="s">
-        <v>985</v>
-      </c>
-      <c r="D53" t="s">
-        <v>986</v>
-      </c>
-      <c r="G53" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>805</v>
-      </c>
-      <c r="B54" t="s">
-        <v>900</v>
-      </c>
-      <c r="C54" t="s">
-        <v>988</v>
-      </c>
-      <c r="D54" t="s">
-        <v>989</v>
-      </c>
-      <c r="G54" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>681</v>
-      </c>
-      <c r="B55" t="s">
-        <v>900</v>
-      </c>
-      <c r="C55" t="s">
-        <v>991</v>
-      </c>
-      <c r="D55" t="s">
-        <v>412</v>
-      </c>
-      <c r="F55" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>889</v>
-      </c>
-      <c r="B56" t="s">
-        <v>900</v>
-      </c>
-      <c r="C56" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>805</v>
-      </c>
-      <c r="B57" t="s">
-        <v>900</v>
-      </c>
-      <c r="C57" t="s">
-        <v>993</v>
-      </c>
-      <c r="D57" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>805</v>
-      </c>
-      <c r="B58" t="s">
-        <v>900</v>
-      </c>
-      <c r="C58" t="s">
-        <v>995</v>
-      </c>
-      <c r="D58" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>798</v>
-      </c>
-      <c r="B59" t="s">
-        <v>900</v>
-      </c>
-      <c r="C59" t="s">
-        <v>997</v>
-      </c>
-      <c r="D59" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>798</v>
-      </c>
-      <c r="B60" t="s">
-        <v>900</v>
-      </c>
-      <c r="C60" t="s">
-        <v>999</v>
-      </c>
-      <c r="D60" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>798</v>
-      </c>
-      <c r="B61" t="s">
-        <v>900</v>
-      </c>
-      <c r="C61" t="s">
-        <v>1001</v>
-      </c>
-      <c r="D61" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>798</v>
-      </c>
-      <c r="B62" t="s">
-        <v>900</v>
-      </c>
-      <c r="C62" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D62" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>798</v>
-      </c>
-      <c r="B63" t="s">
-        <v>900</v>
-      </c>
-      <c r="C63" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D63" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>798</v>
-      </c>
-      <c r="B64" t="s">
-        <v>900</v>
-      </c>
-      <c r="C64" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D64" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>798</v>
-      </c>
-      <c r="B65" t="s">
-        <v>900</v>
-      </c>
-      <c r="C65" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D65" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>798</v>
-      </c>
-      <c r="B66" t="s">
-        <v>900</v>
-      </c>
-      <c r="C66" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D66" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>798</v>
-      </c>
-      <c r="B67" t="s">
-        <v>900</v>
-      </c>
-      <c r="C67" t="s">
-        <v>1011</v>
-      </c>
-      <c r="D67" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>798</v>
-      </c>
-      <c r="B68" t="s">
-        <v>900</v>
-      </c>
-      <c r="C68" t="s">
-        <v>1013</v>
-      </c>
-      <c r="D68" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>798</v>
-      </c>
-      <c r="B69" t="s">
-        <v>900</v>
-      </c>
-      <c r="C69" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D69" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>798</v>
-      </c>
-      <c r="B70" t="s">
-        <v>900</v>
-      </c>
-      <c r="C70" t="s">
-        <v>1017</v>
-      </c>
-      <c r="D70" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>798</v>
-      </c>
-      <c r="B71" t="s">
-        <v>900</v>
-      </c>
-      <c r="C71" t="s">
-        <v>1018</v>
-      </c>
-      <c r="D71" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>798</v>
-      </c>
-      <c r="B72" t="s">
-        <v>900</v>
-      </c>
-      <c r="C72" t="s">
-        <v>1020</v>
-      </c>
-      <c r="D72" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>798</v>
-      </c>
-      <c r="B73" t="s">
-        <v>900</v>
-      </c>
-      <c r="C73" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D73" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>798</v>
-      </c>
-      <c r="B74" t="s">
-        <v>900</v>
-      </c>
-      <c r="C74" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D74" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>798</v>
-      </c>
-      <c r="B75" t="s">
-        <v>900</v>
-      </c>
-      <c r="C75" t="s">
-        <v>1025</v>
-      </c>
-      <c r="D75" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>798</v>
-      </c>
-      <c r="B76" t="s">
-        <v>900</v>
-      </c>
-      <c r="C76" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D76" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>798</v>
-      </c>
-      <c r="B77" t="s">
-        <v>900</v>
-      </c>
-      <c r="C77" t="s">
-        <v>1029</v>
-      </c>
-      <c r="D77" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>798</v>
-      </c>
-      <c r="B78" t="s">
-        <v>900</v>
-      </c>
-      <c r="C78" t="s">
-        <v>1031</v>
-      </c>
-      <c r="D78" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>798</v>
-      </c>
-      <c r="B79" t="s">
-        <v>900</v>
-      </c>
-      <c r="C79" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D79" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>798</v>
-      </c>
-      <c r="B80" t="s">
-        <v>900</v>
-      </c>
-      <c r="C80" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D80" t="s">
-        <v>1036</v>
       </c>
     </row>
   </sheetData>
@@ -28836,7 +27842,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>2417</v>
       </c>
       <c r="B4" t="s">
@@ -37635,268 +36641,268 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.83203125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="92.5" style="7" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.83203125" style="7"/>
-    <col min="7" max="7" width="19.5" style="7" customWidth="1"/>
-    <col min="8" max="8" width="27.83203125" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="7"/>
+    <col min="1" max="1" width="35.83203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="92.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.83203125" style="6"/>
+    <col min="7" max="7" width="19.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="27.83203125" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>2406</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>901</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>2379</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>2365</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>2366</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>2371</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>782</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>654</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="6" t="s">
         <v>2452</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="U2" s="6" t="s">
         <v>2418</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>2380</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>2381</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>2407</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>2383</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>2382</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>2408</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>2385</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>2384</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>2409</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>2386</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>2387</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>2410</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>2389</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>2388</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>2391</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>2390</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>2393</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>2392</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>2411</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>2395</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>2394</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>2412</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>2397</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>2396</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>2401</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>2400</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>2399</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>2398</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>2403</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>2402</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="6" t="s">
         <v>2413</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>2405</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>2404</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>2422</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>2421</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>2365</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="6" t="s">
         <v>2371</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="6" t="s">
         <v>2424</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="6" t="s">
         <v>2425</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>2426</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>2427</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>2365</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="6" t="s">
         <v>2371</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="6" t="s">
         <v>2430</v>
       </c>
     </row>
@@ -38471,7 +37477,7 @@
       <c r="A40" t="s">
         <v>901</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="9" t="s">
         <v>657</v>
       </c>
     </row>
@@ -38482,10 +37488,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -38613,47 +37619,1519 @@
         <v>2447</v>
       </c>
     </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>2432</v>
+      </c>
+      <c r="B13" t="s">
+        <v>900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
+  <dimension ref="A1:H92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B63" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="39.6640625" customWidth="1"/>
+    <col min="1" max="1" width="49.83203125" customWidth="1"/>
+    <col min="3" max="3" width="28.5" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="255.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>902</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>903</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>901</v>
+        <v>2445</v>
       </c>
       <c r="B2" t="s">
-        <v>2364</v>
+        <v>900</v>
       </c>
       <c r="C2" t="s">
-        <v>2363</v>
+        <v>904</v>
+      </c>
+      <c r="F2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B3" t="s">
+        <v>900</v>
+      </c>
+      <c r="C3" t="s">
+        <v>906</v>
+      </c>
+      <c r="E3" t="s">
+        <v>586</v>
+      </c>
+      <c r="F3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G3" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B4" t="s">
+        <v>900</v>
+      </c>
+      <c r="C4" t="s">
+        <v>908</v>
+      </c>
+      <c r="E4" t="s">
+        <v>580</v>
+      </c>
+      <c r="F4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G4" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B5" t="s">
+        <v>900</v>
+      </c>
+      <c r="C5" t="s">
+        <v>910</v>
+      </c>
+      <c r="E5" t="s">
+        <v>587</v>
+      </c>
+      <c r="F5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B6" t="s">
+        <v>900</v>
+      </c>
+      <c r="C6" t="s">
+        <v>912</v>
+      </c>
+      <c r="E6" t="s">
+        <v>587</v>
+      </c>
+      <c r="F6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G6" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B7" t="s">
+        <v>900</v>
+      </c>
+      <c r="C7" t="s">
+        <v>914</v>
+      </c>
+      <c r="F7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B8" t="s">
+        <v>900</v>
+      </c>
+      <c r="C8" t="s">
+        <v>916</v>
+      </c>
+      <c r="F8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B9" t="s">
+        <v>900</v>
+      </c>
+      <c r="C9" t="s">
+        <v>918</v>
+      </c>
+      <c r="F9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B10" t="s">
+        <v>900</v>
+      </c>
+      <c r="C10" t="s">
+        <v>920</v>
+      </c>
+      <c r="F10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G10" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B11" t="s">
+        <v>900</v>
+      </c>
+      <c r="C11" t="s">
+        <v>922</v>
+      </c>
+      <c r="F11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B12" t="s">
+        <v>900</v>
+      </c>
+      <c r="C12" t="s">
+        <v>924</v>
+      </c>
+      <c r="F12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B13" t="s">
+        <v>900</v>
+      </c>
+      <c r="C13" t="s">
+        <v>926</v>
+      </c>
+      <c r="F13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B14" t="s">
+        <v>900</v>
+      </c>
+      <c r="C14" t="s">
+        <v>928</v>
+      </c>
+      <c r="F14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B15" t="s">
+        <v>900</v>
+      </c>
+      <c r="C15" t="s">
+        <v>930</v>
+      </c>
+      <c r="F15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>681</v>
+      </c>
+      <c r="B16" t="s">
+        <v>900</v>
+      </c>
+      <c r="C16" t="s">
+        <v>847</v>
+      </c>
+      <c r="D16" t="s">
+        <v>411</v>
+      </c>
+      <c r="E16" t="s">
+        <v>580</v>
+      </c>
+      <c r="F16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>681</v>
+      </c>
+      <c r="B17" t="s">
+        <v>900</v>
+      </c>
+      <c r="C17" t="s">
+        <v>859</v>
+      </c>
+      <c r="D17" t="s">
+        <v>932</v>
+      </c>
+      <c r="E17" t="s">
+        <v>581</v>
+      </c>
+      <c r="F17" t="s">
+        <v>131</v>
+      </c>
+      <c r="G17" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>681</v>
+      </c>
+      <c r="B18" t="s">
+        <v>900</v>
+      </c>
+      <c r="C18" t="s">
+        <v>863</v>
+      </c>
+      <c r="D18" t="s">
+        <v>933</v>
+      </c>
+      <c r="E18" t="s">
+        <v>581</v>
+      </c>
+      <c r="F18" t="s">
+        <v>131</v>
+      </c>
+      <c r="G18" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>681</v>
+      </c>
+      <c r="B19" t="s">
+        <v>900</v>
+      </c>
+      <c r="C19" t="s">
+        <v>894</v>
+      </c>
+      <c r="D19" t="s">
+        <v>409</v>
+      </c>
+      <c r="E19" t="s">
+        <v>583</v>
+      </c>
+      <c r="F19" t="s">
+        <v>129</v>
+      </c>
+      <c r="G19" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>681</v>
+      </c>
+      <c r="B20" t="s">
+        <v>900</v>
+      </c>
+      <c r="C20" t="s">
+        <v>870</v>
+      </c>
+      <c r="D20" t="s">
+        <v>934</v>
+      </c>
+      <c r="E20" t="s">
+        <v>584</v>
+      </c>
+      <c r="F20" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>792</v>
+      </c>
+      <c r="B21" t="s">
+        <v>900</v>
+      </c>
+      <c r="C21" t="s">
+        <v>935</v>
+      </c>
+      <c r="G21" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>792</v>
+      </c>
+      <c r="B22" t="s">
+        <v>900</v>
+      </c>
+      <c r="C22" t="s">
+        <v>937</v>
+      </c>
+      <c r="G22" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>681</v>
+      </c>
+      <c r="B23" t="s">
+        <v>900</v>
+      </c>
+      <c r="C23" t="s">
+        <v>879</v>
+      </c>
+      <c r="D23" t="s">
+        <v>939</v>
+      </c>
+      <c r="F23" t="s">
+        <v>129</v>
+      </c>
+      <c r="G23" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>681</v>
+      </c>
+      <c r="B24" t="s">
+        <v>900</v>
+      </c>
+      <c r="C24" t="s">
+        <v>867</v>
+      </c>
+      <c r="D24" t="s">
+        <v>868</v>
+      </c>
+      <c r="F24" t="s">
+        <v>129</v>
+      </c>
+      <c r="G24" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>681</v>
+      </c>
+      <c r="B25" t="s">
+        <v>900</v>
+      </c>
+      <c r="C25" t="s">
+        <v>940</v>
+      </c>
+      <c r="D25" t="s">
+        <v>941</v>
+      </c>
+      <c r="F25" t="s">
+        <v>129</v>
+      </c>
+      <c r="G25" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>681</v>
+      </c>
+      <c r="B26" t="s">
+        <v>900</v>
+      </c>
+      <c r="C26" t="s">
+        <v>943</v>
+      </c>
+      <c r="D26" t="s">
+        <v>413</v>
+      </c>
+      <c r="F26" t="s">
+        <v>131</v>
+      </c>
+      <c r="G26" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>681</v>
+      </c>
+      <c r="B27" t="s">
+        <v>900</v>
+      </c>
+      <c r="C27" t="s">
+        <v>945</v>
+      </c>
+      <c r="D27" t="s">
+        <v>946</v>
+      </c>
+      <c r="E27" t="s">
+        <v>582</v>
+      </c>
+      <c r="F27" t="s">
+        <v>129</v>
+      </c>
+      <c r="G27" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>681</v>
+      </c>
+      <c r="B28" t="s">
+        <v>900</v>
+      </c>
+      <c r="C28" t="s">
+        <v>948</v>
+      </c>
+      <c r="D28" t="s">
+        <v>949</v>
+      </c>
+      <c r="F28" t="s">
+        <v>129</v>
+      </c>
+      <c r="G28" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>681</v>
+      </c>
+      <c r="B29" t="s">
+        <v>900</v>
+      </c>
+      <c r="C29" t="s">
+        <v>951</v>
+      </c>
+      <c r="D29" t="s">
+        <v>952</v>
+      </c>
+      <c r="F29" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>681</v>
+      </c>
+      <c r="B30" t="s">
+        <v>900</v>
+      </c>
+      <c r="C30" t="s">
+        <v>954</v>
+      </c>
+      <c r="D30" t="s">
+        <v>410</v>
+      </c>
+      <c r="E30" t="s">
+        <v>585</v>
+      </c>
+      <c r="F30" t="s">
+        <v>955</v>
+      </c>
+      <c r="G30" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>681</v>
+      </c>
+      <c r="B31" t="s">
+        <v>900</v>
+      </c>
+      <c r="C31" t="s">
+        <v>956</v>
+      </c>
+      <c r="D31" t="s">
+        <v>410</v>
+      </c>
+      <c r="E31" t="s">
+        <v>585</v>
+      </c>
+      <c r="F31" t="s">
+        <v>955</v>
+      </c>
+      <c r="G31" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>889</v>
+      </c>
+      <c r="B32" t="s">
+        <v>900</v>
+      </c>
+      <c r="C32" t="s">
+        <v>957</v>
+      </c>
+      <c r="E32" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>832</v>
+      </c>
+      <c r="B33" t="s">
+        <v>900</v>
+      </c>
+      <c r="C33" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>832</v>
+      </c>
+      <c r="B34" t="s">
+        <v>900</v>
+      </c>
+      <c r="C34" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>832</v>
+      </c>
+      <c r="B35" t="s">
+        <v>900</v>
+      </c>
+      <c r="C35" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>893</v>
+      </c>
+      <c r="B36" t="s">
+        <v>900</v>
+      </c>
+      <c r="C36" t="s">
+        <v>893</v>
+      </c>
+      <c r="G36" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B37" t="s">
+        <v>900</v>
+      </c>
+      <c r="C37" t="s">
+        <v>962</v>
+      </c>
+      <c r="E37" t="s">
+        <v>579</v>
+      </c>
+      <c r="F37" t="s">
+        <v>129</v>
+      </c>
+      <c r="G37" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B38" t="s">
+        <v>900</v>
+      </c>
+      <c r="C38" t="s">
+        <v>964</v>
+      </c>
+      <c r="F38" t="s">
+        <v>128</v>
+      </c>
+      <c r="G38" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>681</v>
+      </c>
+      <c r="B39" t="s">
+        <v>900</v>
+      </c>
+      <c r="C39" t="s">
+        <v>874</v>
+      </c>
+      <c r="D39" t="s">
+        <v>966</v>
+      </c>
+      <c r="F39" t="s">
+        <v>129</v>
+      </c>
+      <c r="G39" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>792</v>
+      </c>
+      <c r="B40" t="s">
+        <v>900</v>
+      </c>
+      <c r="C40" t="s">
+        <v>967</v>
+      </c>
+      <c r="G40" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>792</v>
+      </c>
+      <c r="B41" t="s">
+        <v>900</v>
+      </c>
+      <c r="C41" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>792</v>
+      </c>
+      <c r="B42" t="s">
+        <v>900</v>
+      </c>
+      <c r="C42" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>792</v>
+      </c>
+      <c r="B43" t="s">
+        <v>900</v>
+      </c>
+      <c r="C43" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>786</v>
+      </c>
+      <c r="B44" t="s">
+        <v>900</v>
+      </c>
+      <c r="C44" t="s">
+        <v>826</v>
+      </c>
+      <c r="D44" t="s">
+        <v>972</v>
+      </c>
+      <c r="E44" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>786</v>
+      </c>
+      <c r="B45" t="s">
+        <v>900</v>
+      </c>
+      <c r="C45" t="s">
+        <v>973</v>
+      </c>
+      <c r="D45" t="s">
+        <v>974</v>
+      </c>
+      <c r="E45" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>786</v>
+      </c>
+      <c r="B46" t="s">
+        <v>900</v>
+      </c>
+      <c r="C46" t="s">
+        <v>975</v>
+      </c>
+      <c r="D46" t="s">
+        <v>976</v>
+      </c>
+      <c r="E46" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>786</v>
+      </c>
+      <c r="B47" t="s">
+        <v>900</v>
+      </c>
+      <c r="C47" t="s">
+        <v>843</v>
+      </c>
+      <c r="D47" t="s">
+        <v>977</v>
+      </c>
+      <c r="E47" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>790</v>
+      </c>
+      <c r="B48" t="s">
+        <v>900</v>
+      </c>
+      <c r="C48" t="s">
+        <v>957</v>
+      </c>
+      <c r="D48" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>790</v>
+      </c>
+      <c r="B49" t="s">
+        <v>900</v>
+      </c>
+      <c r="C49" t="s">
+        <v>978</v>
+      </c>
+      <c r="D49" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>805</v>
+      </c>
+      <c r="B50" t="s">
+        <v>900</v>
+      </c>
+      <c r="C50" t="s">
+        <v>979</v>
+      </c>
+      <c r="D50" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>805</v>
+      </c>
+      <c r="B51" t="s">
+        <v>900</v>
+      </c>
+      <c r="C51" t="s">
+        <v>981</v>
+      </c>
+      <c r="D51" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>805</v>
+      </c>
+      <c r="B52" t="s">
+        <v>900</v>
+      </c>
+      <c r="C52" t="s">
+        <v>983</v>
+      </c>
+      <c r="D52" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>805</v>
+      </c>
+      <c r="B53" t="s">
+        <v>900</v>
+      </c>
+      <c r="C53" t="s">
+        <v>985</v>
+      </c>
+      <c r="D53" t="s">
+        <v>986</v>
+      </c>
+      <c r="G53" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>805</v>
+      </c>
+      <c r="B54" t="s">
+        <v>900</v>
+      </c>
+      <c r="C54" t="s">
+        <v>988</v>
+      </c>
+      <c r="D54" t="s">
+        <v>989</v>
+      </c>
+      <c r="G54" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>681</v>
+      </c>
+      <c r="B55" t="s">
+        <v>900</v>
+      </c>
+      <c r="C55" t="s">
+        <v>991</v>
+      </c>
+      <c r="D55" t="s">
+        <v>412</v>
+      </c>
+      <c r="F55" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>889</v>
+      </c>
+      <c r="B56" t="s">
+        <v>900</v>
+      </c>
+      <c r="C56" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>805</v>
+      </c>
+      <c r="B57" t="s">
+        <v>900</v>
+      </c>
+      <c r="C57" t="s">
+        <v>993</v>
+      </c>
+      <c r="D57" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>805</v>
+      </c>
+      <c r="B58" t="s">
+        <v>900</v>
+      </c>
+      <c r="C58" t="s">
+        <v>995</v>
+      </c>
+      <c r="D58" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>798</v>
+      </c>
+      <c r="B59" t="s">
+        <v>900</v>
+      </c>
+      <c r="C59" t="s">
+        <v>997</v>
+      </c>
+      <c r="D59" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>798</v>
+      </c>
+      <c r="B60" t="s">
+        <v>900</v>
+      </c>
+      <c r="C60" t="s">
+        <v>999</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>798</v>
+      </c>
+      <c r="B61" t="s">
+        <v>900</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>798</v>
+      </c>
+      <c r="B62" t="s">
+        <v>900</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>798</v>
+      </c>
+      <c r="B63" t="s">
+        <v>900</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>798</v>
+      </c>
+      <c r="B64" t="s">
+        <v>900</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>798</v>
+      </c>
+      <c r="B65" t="s">
+        <v>900</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>798</v>
+      </c>
+      <c r="B66" t="s">
+        <v>900</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>798</v>
+      </c>
+      <c r="B67" t="s">
+        <v>900</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>798</v>
+      </c>
+      <c r="B68" t="s">
+        <v>900</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>798</v>
+      </c>
+      <c r="B69" t="s">
+        <v>900</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>798</v>
+      </c>
+      <c r="B70" t="s">
+        <v>900</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>798</v>
+      </c>
+      <c r="B71" t="s">
+        <v>900</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>798</v>
+      </c>
+      <c r="B72" t="s">
+        <v>900</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>798</v>
+      </c>
+      <c r="B73" t="s">
+        <v>900</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>798</v>
+      </c>
+      <c r="B74" t="s">
+        <v>900</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>798</v>
+      </c>
+      <c r="B75" t="s">
+        <v>900</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>798</v>
+      </c>
+      <c r="B76" t="s">
+        <v>900</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>798</v>
+      </c>
+      <c r="B77" t="s">
+        <v>900</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>798</v>
+      </c>
+      <c r="B78" t="s">
+        <v>900</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>798</v>
+      </c>
+      <c r="B79" t="s">
+        <v>900</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>798</v>
+      </c>
+      <c r="B80" t="s">
+        <v>900</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>2432</v>
+      </c>
+      <c r="B81" t="s">
+        <v>900</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D81" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>2432</v>
+      </c>
+      <c r="B82" t="s">
+        <v>900</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2485</v>
+      </c>
+      <c r="D82" t="s">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>2432</v>
+      </c>
+      <c r="B83" t="s">
+        <v>900</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2486</v>
+      </c>
+      <c r="D83" t="s">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>2432</v>
+      </c>
+      <c r="B84" t="s">
+        <v>900</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2487</v>
+      </c>
+      <c r="D84" t="s">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>2432</v>
+      </c>
+      <c r="B85" t="s">
+        <v>900</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2488</v>
+      </c>
+      <c r="D85" t="s">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>2432</v>
+      </c>
+      <c r="B86" t="s">
+        <v>900</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2489</v>
+      </c>
+      <c r="D86" t="s">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>2432</v>
+      </c>
+      <c r="B87" t="s">
+        <v>900</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2490</v>
+      </c>
+      <c r="D87" t="s">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>2432</v>
+      </c>
+      <c r="B88" t="s">
+        <v>900</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2491</v>
+      </c>
+      <c r="D88" t="s">
+        <v>2479</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>2432</v>
+      </c>
+      <c r="B89" t="s">
+        <v>900</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2492</v>
+      </c>
+      <c r="D89" t="s">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>2432</v>
+      </c>
+      <c r="B90" t="s">
+        <v>900</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2493</v>
+      </c>
+      <c r="D90" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>2432</v>
+      </c>
+      <c r="B91" t="s">
+        <v>900</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2494</v>
+      </c>
+      <c r="D91" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>2432</v>
+      </c>
+      <c r="B92" t="s">
+        <v>900</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2495</v>
+      </c>
+      <c r="D92" t="s">
+        <v>2483</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/datacatalogue/Conception.xlsx
+++ b/data/datacatalogue/Conception.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/umcg-mswertz/git/molgenis-emx2/data/datacatalogue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB0F770-A6EF-DD4D-9A7D-97F963BD6763}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3F668D-6653-2446-9050-8C532E8B45FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="20500" firstSheet="28" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Institutions" sheetId="23" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8884" uniqueCount="2512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8884" uniqueCount="2514">
   <si>
     <t>description</t>
   </si>
@@ -7722,6 +7722,12 @@
   </si>
   <si>
     <t>GCC,EUROCAT</t>
+  </si>
+  <si>
+    <t>fundingDescription</t>
+  </si>
+  <si>
+    <t>fundingStatement</t>
   </si>
 </sst>
 </file>
@@ -12481,7 +12487,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -12534,8 +12542,8 @@
       <c r="M1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>61</v>
+      <c r="N1" s="13" t="s">
+        <v>2512</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>62</v>
@@ -14270,11 +14278,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="H19" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
+      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14342,7 +14350,7 @@
         <v>2505</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>61</v>
+        <v>2512</v>
       </c>
       <c r="P1" s="13" t="s">
         <v>62</v>
@@ -15442,7 +15450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -27738,13 +27746,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
   <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="95" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
@@ -27788,7 +27797,7 @@
         <v>60</v>
       </c>
       <c r="N1" t="s">
-        <v>61</v>
+        <v>2513</v>
       </c>
       <c r="O1" t="s">
         <v>62</v>

--- a/data/datacatalogue/Conception.xlsx
+++ b/data/datacatalogue/Conception.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/umcg-mswertz/git/molgenis-emx2/data/datacatalogue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3F668D-6653-2446-9050-8C532E8B45FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB0F770-A6EF-DD4D-9A7D-97F963BD6763}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="20500" firstSheet="28" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Institutions" sheetId="23" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8884" uniqueCount="2514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8884" uniqueCount="2512">
   <si>
     <t>description</t>
   </si>
@@ -7722,12 +7722,6 @@
   </si>
   <si>
     <t>GCC,EUROCAT</t>
-  </si>
-  <si>
-    <t>fundingDescription</t>
-  </si>
-  <si>
-    <t>fundingStatement</t>
   </si>
 </sst>
 </file>
@@ -12487,9 +12481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -12542,8 +12534,8 @@
       <c r="M1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="N1" s="13" t="s">
-        <v>2512</v>
+      <c r="N1" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>62</v>
@@ -14278,11 +14270,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="H19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
+      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14350,7 +14342,7 @@
         <v>2505</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>2512</v>
+        <v>61</v>
       </c>
       <c r="P1" s="13" t="s">
         <v>62</v>
@@ -15450,7 +15442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -27746,14 +27738,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
   <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="95" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
@@ -27797,7 +27788,7 @@
         <v>60</v>
       </c>
       <c r="N1" t="s">
-        <v>2513</v>
+        <v>61</v>
       </c>
       <c r="O1" t="s">
         <v>62</v>
